--- a/va_facility_data_2025-02-20/Packard Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Packard%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Packard Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Packard%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0b498ed4107f4c7b81bdcabb2a736ce4"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rbeac558b4f1944b58d40184bc3595e50"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R42b29f226caa47b3a2c3b51c9f66874a"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R4d38b8d380334fbbba949f1d55e33f5e"/>
   </x:sheets>
 </x:workbook>
 </file>
